--- a/data/trans_orig/P14A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F36C2915-25EB-4E18-A4C6-4F75FFE972F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7429982A-196E-4CC5-A729-7F565D94CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B73C61D-6EEF-4DE2-8531-B2D8E4A1BF8D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09AA3892-8C0A-425C-B507-9E195B9F0D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>90,78%</t>
   </si>
   <si>
-    <t>59,2%</t>
+    <t>60,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,19 +84,19 @@
     <t>85,47%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,25 +108,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>40,8%</t>
+    <t>39,92%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,19 +144,19 @@
     <t>76,29%</t>
   </si>
   <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>7,98%</t>
@@ -168,19 +168,19 @@
     <t>23,71%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,7 +198,7 @@
     <t>90,56%</t>
   </si>
   <si>
-    <t>55,04%</t>
+    <t>58,35%</t>
   </si>
   <si>
     <t>0%</t>
@@ -216,55 +216,55 @@
     <t>9,44%</t>
   </si>
   <si>
-    <t>44,96%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>77,06%</t>
+    <t>75,85%</t>
   </si>
   <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>85,62%</t>
   </si>
   <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>22,94%</t>
+    <t>24,15%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
   </si>
   <si>
     <t>14,38%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -279,19 +279,19 @@
     <t>75,95%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>77,78%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -300,73 +300,73 @@
     <t>24,05%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
   </si>
   <si>
     <t>59,42%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>68,12%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>40,58%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
   </si>
   <si>
     <t>31,88%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
   </si>
   <si>
     <t>77,49%</t>
@@ -396,55 +396,55 @@
     <t>66,4%</t>
   </si>
   <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>72,03%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
   </si>
 </sst>
 </file>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EADF59-F7D9-4426-94C2-172D1DACA09F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7E632-EA81-445A-BA18-4DC9FF6E5625}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1607,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ACEFB0-FDD8-4E55-A5A2-967FAC3EB2F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E5F1C1-DCCB-4825-83E1-FE63AA8605FC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A05-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7429982A-196E-4CC5-A729-7F565D94CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44996912-08F4-4326-8F82-3B47AFFFA3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09AA3892-8C0A-425C-B507-9E195B9F0D3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{994C69AD-ED1C-4E8F-8D52-9761ABB880DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
     <t>90,78%</t>
   </si>
   <si>
-    <t>60,08%</t>
+    <t>59,3%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,19 +84,19 @@
     <t>85,47%</t>
   </si>
   <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,25 +108,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>39,92%</t>
+    <t>40,7%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,49 +138,49 @@
     <t>92,02%</t>
   </si>
   <si>
-    <t>63,74%</t>
+    <t>63,46%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>36,26%</t>
+    <t>36,54%</t>
   </si>
   <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -192,13 +192,13 @@
     <t>86,73%</t>
   </si>
   <si>
-    <t>40,29%</t>
+    <t>47,23%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>58,35%</t>
+    <t>55,0%</t>
   </si>
   <si>
     <t>0%</t>
@@ -210,67 +210,67 @@
     <t>13,27%</t>
   </si>
   <si>
-    <t>59,71%</t>
+    <t>52,77%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>45,0%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>75,85%</t>
+    <t>76,08%</t>
   </si>
   <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>85,62%</t>
   </si>
   <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>24,15%</t>
+    <t>23,92%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>14,38%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por colitis en 2015 (Tasa respuesta: 1,11%)</t>
+    <t>Población que recibe medicación o terapia por colitis en 2016 (Tasa respuesta: 1,11%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -279,19 +279,19 @@
     <t>75,95%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>77,78%</t>
   </si>
   <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -300,73 +300,73 @@
     <t>24,05%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
   </si>
   <si>
     <t>59,42%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>68,12%</t>
   </si>
   <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>40,58%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
   </si>
   <si>
     <t>31,88%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
   </si>
   <si>
     <t>77,49%</t>
@@ -378,7 +378,7 @@
     <t>73,47%</t>
   </si>
   <si>
-    <t>25,56%</t>
+    <t>18,47%</t>
   </si>
   <si>
     <t>22,51%</t>
@@ -390,61 +390,61 @@
     <t>26,53%</t>
   </si>
   <si>
-    <t>74,44%</t>
+    <t>81,53%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>72,03%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
   </si>
 </sst>
 </file>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7E632-EA81-445A-BA18-4DC9FF6E5625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E059B9-B09F-476C-A81D-CE1FA8D879C2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1607,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E5F1C1-DCCB-4825-83E1-FE63AA8605FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7108A738-C9E8-448B-811D-2DF3C9CE561F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
